--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>华安幸福生活混合</t>
   </si>
   <si>
+    <t>12.38</t>
+  </si>
+  <si>
     <t>82.67</t>
   </si>
   <si>
     <t>2.74</t>
+  </si>
+  <si>
+    <t>0.3392</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005136</t>
-  </si>
-  <si>
-    <t>华安幸福生活混合</t>
-  </si>
-  <si>
-    <t>12.38</t>
-  </si>
-  <si>
-    <t>82.67</t>
-  </si>
-  <si>
-    <t>2.74</t>
-  </si>
-  <si>
-    <t>0.3392</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -830,7 +831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,17 +842,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -861,14 +882,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.52</v>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -877,13 +920,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.52</v>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1604,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.34</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -566,6 +583,1540 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013767</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安价值回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013768</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安价值回报混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国泰享回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1381,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1855,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2271,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/600582-天地科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -583,6 +600,1730 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013797</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008422</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融研发创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008423</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融研发创新混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013798</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时优质鑫选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时优势企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +3857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2932,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3406,7 +5147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +5279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +5563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
